--- a/data/epp-13-addr-data.xlsx
+++ b/data/epp-13-addr-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5448256F-8D2E-D641-BEF5-FF32F09032F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED6E31-1503-1043-BEB6-9E7372B31EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>errorCode</t>
   </si>
@@ -169,9 +169,6 @@
   </si>
   <si>
     <t>::X</t>
-  </si>
-  <si>
-    <t>:::1</t>
   </si>
   <si>
     <t>NOT::HEX::</t>
@@ -443,8 +440,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:F26" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B7:F26" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}" name="DataProvider" displayName="DataProvider" ref="B7:F25" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B7:F25" xr:uid="{E85A8946-EC69-EC4F-9D2F-ABC371B76D30}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -779,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -798,7 +795,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -807,7 +804,7 @@
     </row>
     <row r="3" spans="2:6" ht="115" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -839,7 +836,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -888,7 +885,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
@@ -905,7 +902,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -919,7 +916,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>24</v>
@@ -933,7 +930,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -947,7 +944,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -961,7 +958,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>19</v>
@@ -975,7 +972,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
@@ -989,7 +986,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>21</v>
@@ -1006,7 +1003,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
@@ -1023,7 +1020,7 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>25</v>
@@ -1032,12 +1029,12 @@
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>26</v>
@@ -1046,12 +1043,12 @@
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
@@ -1060,12 +1057,12 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -1074,12 +1071,12 @@
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
@@ -1088,29 +1085,32 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
@@ -1119,23 +1119,6 @@
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/data/epp-13-addr-data.xlsx
+++ b/data/epp-13-addr-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/icann/rst-test-specs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77ED6E31-1503-1043-BEB6-9E7372B31EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38C0BF-BCEB-B648-B3A0-580FE604FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -192,14 +192,13 @@
     <t>2001:DB8::53:2</t>
   </si>
   <si>
+    <t>IP address Data Provider for epp-13</t>
+  </si>
+  <si>
     <t>* Values in {parentheses} are not literal values, they indicate that an appropriate value should be computed.
     * A value of `{EMPTY}` indicates an empty string.
-* Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an &lt;info&gt; command.
-* An &lt;update&gt; command will then be used to remove the property, which MUST succeed.
+* Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an `&lt;info&gt; command.
 * The cell values for rows with action=rem do not occur in previous rows, so the objects should not have those properties, meaning a successful response is an error.</t>
-  </si>
-  <si>
-    <t>IP address Data Provider for epp-13</t>
   </si>
 </sst>
 </file>
@@ -778,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -795,16 +794,16 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="2:6" ht="115" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>

--- a/data/epp-13-addr-data.xlsx
+++ b/data/epp-13-addr-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38C0BF-BCEB-B648-B3A0-580FE604FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7DCDF-9E44-5945-9718-4F9CDF0D5D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>

--- a/data/epp-13-addr-data.xlsx
+++ b/data/epp-13-addr-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A7DCDF-9E44-5945-9718-4F9CDF0D5D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34583B-A188-BA4F-9237-271225F3D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
+    <workbookView xWindow="24100" yWindow="500" windowWidth="14300" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>errorCode</t>
   </si>
@@ -126,15 +126,9 @@
     <t>v4</t>
   </si>
   <si>
-    <t>192.0.2.1</t>
-  </si>
-  <si>
     <t>EPP_UNEXPECTED_COMMAND_FAILURE</t>
   </si>
   <si>
-    <t>192.0.2</t>
-  </si>
-  <si>
     <t>EPP_HOST_UPDATE_SERVER_ACCEPTS_INVALID_IPV4_ADDRESS</t>
   </si>
   <si>
@@ -156,12 +150,6 @@
     <t>v6</t>
   </si>
   <si>
-    <t>2001:DB8::53:1</t>
-  </si>
-  <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
     <t>::</t>
   </si>
   <si>
@@ -184,12 +172,6 @@
   </si>
   <si>
     <t>rem</t>
-  </si>
-  <si>
-    <t>192.0.2.2</t>
-  </si>
-  <si>
-    <t>2001:DB8::53:2</t>
   </si>
   <si>
     <t>IP address Data Provider for epp-13</t>
@@ -199,13 +181,37 @@
     * A value of `{EMPTY}` indicates an empty string.
 * Any row containing an "action" value of "add" and a passOrFail value of "pass" should result in an object property being added, which will be validated using an `&lt;info&gt; command.
 * The cell values for rows with action=rem do not occur in previous rows, so the objects should not have those properties, meaning a successful response is an error.</t>
+  </si>
+  <si>
+    <t>208.77.190.192</t>
+  </si>
+  <si>
+    <t>208.77.190</t>
+  </si>
+  <si>
+    <t>208.77.190.193</t>
+  </si>
+  <si>
+    <t>208.77.190.194</t>
+  </si>
+  <si>
+    <t>208.77.190.195</t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::1</t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::2</t>
+  </si>
+  <si>
+    <t>2602:800:900e:1257::3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -238,6 +244,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -273,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +317,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D4FAA1-1060-DC4E-8B86-313DD9301EC2}">
   <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +799,7 @@
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="1"/>
@@ -794,7 +807,7 @@
   <sheetData>
     <row r="2" spans="2:6" ht="25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -803,7 +816,7 @@
     </row>
     <row r="3" spans="2:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="7"/>
@@ -835,7 +848,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -884,24 +897,24 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -910,215 +923,215 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/epp-13-addr-data.xlsx
+++ b/data/epp-13-addr-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gavin.brown/Code/rst-test-specs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C34583B-A188-BA4F-9237-271225F3D237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B08765-C9AA-6548-A89A-1389CB221602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24100" yWindow="500" windowWidth="14300" windowHeight="21100" xr2:uid="{CD472396-4CFB-9A45-AA99-46F4E9CB8B91}"/>
   </bookViews>
@@ -65,52 +65,6 @@
     <t>Error code if expected result is not produced</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Notes for authors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
-* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
-* Do not change anything except the contents of the table below and the box above.
-* All cells </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MUST</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> have the "Text" type.
-* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
-* This means that all cells in the first row MUST be populated.</t>
-    </r>
-  </si>
-  <si>
     <t>ip</t>
   </si>
   <si>
@@ -205,13 +159,23 @@
   </si>
   <si>
     <t>2602:800:900e:1257::3</t>
+  </si>
+  <si>
+    <t>Notes for authors:
+* The name of the file (minus ".xlsx") is used as the ID of the data provider in the spec.
+* Any text in the box above is treated as Markdown and incorporated into the specs as the description for this data provider.
+* Do not change anything except the contents of the table below and the box above.
+* All cells MUST have the "Text" type.
+* Empty cells do not indicate an empty string (the "{EMPTY}" value indicates that), but will be replaced with the value in the previous row when this file is converted into YAML.
+* This means that all cells in the first row MUST be populated.
+* IP addresses must be taken from the prefixes 208.77.190.192/26 and 2602:800:900e:1257::/64 and should not be reused.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -236,13 +200,6 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -299,6 +256,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -317,7 +275,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +748,7 @@
   <dimension ref="B2:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,55 +763,55 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="2:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="2:6" ht="98" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:6" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
@@ -866,10 +823,10 @@
     <row r="8" spans="2:6" s="3" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -897,24 +854,24 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>6</v>
@@ -923,215 +880,215 @@
         <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>37</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
